--- a/biology/Médecine/Muscle_subscapulaire/Muscle_subscapulaire.xlsx
+++ b/biology/Médecine/Muscle_subscapulaire/Muscle_subscapulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle subscapulaire (ou muscle sous-scapulaire) est un muscle postérieur de l'épaule. Avec les muscles muscle infra-épineux, supra-épineux et petit rond, il compose la coiffe des rotateurs.
 </t>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle subscapulaire se fixe sur la face antérieure de la scapula dans toute l'étendue de la fosse subscapulaire[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle subscapulaire se fixe sur la face antérieure de la scapula dans toute l'étendue de la fosse subscapulaire.
 L'insertion s'arrête en haut et en dehors, suivant une ligne tendue du tubercule infraglénoïdal à l'incisure scapulaire.
 </t>
         </is>
@@ -543,10 +557,12 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle subscapulaire est oblique en haut, en avant, et en dehors Il est de forme triangulaire à base médiale et à sommet latéral.
-Ses fibres supérieures sont horizontales et ses fibres inférieures obliques en haut et en dehors[1]
+Ses fibres supérieures sont horizontales et ses fibres inférieures obliques en haut et en dehors
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle subscapulaire s’insère par un tendon sur le versant supérieur du petit tubercule de l'humérus.
 Le tendon est séparé de la capsule de l'articulation gléno-humérale par la bourse subtendineuse du muscle subscapulaire.
@@ -607,9 +625,11 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle subscapulaire est innervé par le nerf subscapulaire supérieur et le nerf subscapulaire inférieur issus du faisceau postérieur du plexus brachial (Racines C5, C6)[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle subscapulaire est innervé par le nerf subscapulaire supérieur et le nerf subscapulaire inférieur issus du faisceau postérieur du plexus brachial (Racines C5, C6).
 </t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle subscapulaire est vascularisé par l'artère subscapulaire.
 </t>
@@ -669,7 +691,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Adducteur du bras et rotateur interne (médial) de l'épaule.
 Abaisseur de la tête humérale à partir de 35° d'abduction.
